--- a/Chronologie2024.xlsx
+++ b/Chronologie2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecomuseum.sharepoint.com/sites/RechercheetConservation/Documents partages/SUIVI/2024/Chronologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E188AFEC-32B4-4839-BA22-C3F71E560562}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BE2E28C-DE9E-4489-89B8-953E9180D5C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DE335B-1AC2-40BA-BF47-5A92BF0C7D95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
   <si>
     <t>Chronologie des chants d'anoures 2023</t>
   </si>
@@ -120,6 +120,45 @@
   </si>
   <si>
     <t>Premier chant de la rainette crucifère</t>
+  </si>
+  <si>
+    <t>Orford/Magog</t>
+  </si>
+  <si>
+    <t>Estrie</t>
+  </si>
+  <si>
+    <t>entre Orford et Magog</t>
+  </si>
+  <si>
+    <t>Marianne Cusson</t>
+  </si>
+  <si>
+    <t>Sainte-Julienne</t>
+  </si>
+  <si>
+    <t>Lanaudière</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Éric Guerra-Grenier</t>
+  </si>
+  <si>
+    <t>loins dans les bois</t>
+  </si>
+  <si>
+    <t>La Côte-de-Beaupré</t>
+  </si>
+  <si>
+    <t>Capitale-Nationale</t>
+  </si>
+  <si>
+    <t>Simon Bourbeau</t>
+  </si>
+  <si>
+    <t>Masses d'œufs de grenouille des bois observés</t>
   </si>
 </sst>
 </file>
@@ -148,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,15 +252,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -234,6 +273,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -575,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CD39-F739-43EC-8F19-3C87262D3302}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,208 +644,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>45379</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="9">
         <v>1</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>45379</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="9">
         <v>1</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>45390</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>45391</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>45391</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="3">
         <v>1</v>
       </c>
     </row>
@@ -811,6 +1015,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EC185F503A6BF4496F48AD665D177EC" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0f65f3e6b145c65dc90cd30cfb63f62c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a604ce4-e110-496b-b514-05cf52b55d58" xmlns:ns3="52f59610-9d4b-4eee-b073-9157bca3f72d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a0e7cc1f2b3c8a09ff5b6cd9db8c6a" ns2:_="" ns3:_="">
     <xsd:import namespace="7a604ce4-e110-496b-b514-05cf52b55d58"/>
@@ -1017,15 +1230,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1038,13 +1242,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20174D14-1C84-4634-96E6-AF8058B909CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20174D14-1C84-4634-96E6-AF8058B909CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
+    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
+    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Chronologie2024.xlsx
+++ b/Chronologie2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecomuseum.sharepoint.com/sites/RechercheetConservation/Documents partages/SUIVI/2024/Chronologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BE2E28C-DE9E-4489-89B8-953E9180D5C1}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA65EB0-B778-4BAC-82CF-1B5C7330245C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DE335B-1AC2-40BA-BF47-5A92BF0C7D95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
   <si>
     <t>Chronologie des chants d'anoures 2023</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>Masses d'œufs de grenouille des bois observés</t>
+  </si>
+  <si>
+    <t>BUAM</t>
+  </si>
+  <si>
+    <t>Les Cèdres</t>
+  </si>
+  <si>
+    <t>Monteregie</t>
+  </si>
+  <si>
+    <t>Premiers chants de la saison</t>
   </si>
 </sst>
 </file>
@@ -187,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,13 +293,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CD39-F739-43EC-8F19-3C87262D3302}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,10 +662,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -711,7 +729,7 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="1"/>
@@ -745,7 +763,7 @@
       <c r="I5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="1"/>
@@ -779,7 +797,7 @@
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="1"/>
@@ -813,7 +831,7 @@
       <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -845,7 +863,7 @@
       <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="3">
         <v>1</v>
       </c>
     </row>
@@ -897,7 +915,7 @@
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -927,7 +945,7 @@
       <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -959,7 +977,7 @@
       <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -989,7 +1007,7 @@
       <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -1002,6 +1020,38 @@
         <v>39</v>
       </c>
       <c r="J13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1015,12 +1065,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a604ce4-e110-496b-b514-05cf52b55d58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52f59610-9d4b-4eee-b073-9157bca3f72d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,20 +1283,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a604ce4-e110-496b-b514-05cf52b55d58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="52f59610-9d4b-4eee-b073-9157bca3f72d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
+    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1269,12 +1322,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
-    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Chronologie2024.xlsx
+++ b/Chronologie2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecomuseum.sharepoint.com/sites/RechercheetConservation/Documents partages/SUIVI/2024/Chronologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDA65EB0-B778-4BAC-82CF-1B5C7330245C}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61FB706-03D0-41B2-BEB0-DC679A8D0FF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DE335B-1AC2-40BA-BF47-5A92BF0C7D95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Chronologie des chants d'anoures 2023</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>Premiers chants de la saison</t>
+  </si>
+  <si>
+    <t>Mauricie</t>
+  </si>
+  <si>
+    <t>Shawinigan</t>
+  </si>
+  <si>
+    <t>iNaturaliste (https://www.inaturalist.org/observations/208314973)</t>
+  </si>
+  <si>
+    <t>huxleyr</t>
   </si>
 </sst>
 </file>
@@ -296,11 +308,11 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -641,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CD39-F739-43EC-8F19-3C87262D3302}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,10 +674,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1027,7 +1039,7 @@
       <c r="A14" s="2">
         <v>45398</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1052,6 +1064,38 @@
         <v>16</v>
       </c>
       <c r="J14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1065,14 +1109,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a604ce4-e110-496b-b514-05cf52b55d58">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="52f59610-9d4b-4eee-b073-9157bca3f72d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1283,21 +1325,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a604ce4-e110-496b-b514-05cf52b55d58">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="52f59610-9d4b-4eee-b073-9157bca3f72d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
-    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1322,9 +1363,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a604ce4-e110-496b-b514-05cf52b55d58"/>
+    <ds:schemaRef ds:uri="52f59610-9d4b-4eee-b073-9157bca3f72d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Chronologie2024.xlsx
+++ b/Chronologie2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecomuseum.sharepoint.com/sites/RechercheetConservation/Documents partages/SUIVI/2024/Chronologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61FB706-03D0-41B2-BEB0-DC679A8D0FF1}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1187C2F-D22D-47D7-BC2C-9DB9D8E77F3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DE335B-1AC2-40BA-BF47-5A92BF0C7D95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>Chronologie des chants d'anoures 2023</t>
   </si>
@@ -183,6 +183,39 @@
   </si>
   <si>
     <t>huxleyr</t>
+  </si>
+  <si>
+    <t>à l'étang au zoo</t>
+  </si>
+  <si>
+    <t>Bas-Saint-Laurent</t>
+  </si>
+  <si>
+    <t>Rimouski</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Walter Betarcchi</t>
+  </si>
+  <si>
+    <t>201m</t>
+  </si>
+  <si>
+    <t>Saguenay - Lac-Saint-Jean</t>
+  </si>
+  <si>
+    <t>C-D</t>
+  </si>
+  <si>
+    <t>Yoann Perrot</t>
+  </si>
+  <si>
+    <t>Cote 2</t>
+  </si>
+  <si>
+    <t>141m</t>
   </si>
 </sst>
 </file>
@@ -211,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,8 +287,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -278,11 +317,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +363,21 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CD39-F739-43EC-8F19-3C87262D3302}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,6 +1164,154 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>45410</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1109,15 +1322,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001EC185F503A6BF4496F48AD665D177EC" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0f65f3e6b145c65dc90cd30cfb63f62c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a604ce4-e110-496b-b514-05cf52b55d58" xmlns:ns3="52f59610-9d4b-4eee-b073-9157bca3f72d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36a0e7cc1f2b3c8a09ff5b6cd9db8c6a" ns2:_="" ns3:_="">
     <xsd:import namespace="7a604ce4-e110-496b-b514-05cf52b55d58"/>
@@ -1324,6 +1528,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1336,14 +1549,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20174D14-1C84-4634-96E6-AF8058B909CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1362,6 +1567,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3851125A-FB49-4FC6-8FFA-1DA756BF2BAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72B39488-16AA-4F96-A62E-293388E6B9F1}">
   <ds:schemaRefs>

--- a/Chronologie2024.xlsx
+++ b/Chronologie2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecomuseum.sharepoint.com/sites/RechercheetConservation/Documents partages/SUIVI/2024/Chronologie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1187C2F-D22D-47D7-BC2C-9DB9D8E77F3B}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="8_{F92A5546-5215-4A90-AB7B-88156BE1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F59D880-3F78-414A-AA06-B48567D13EA6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50DE335B-1AC2-40BA-BF47-5A92BF0C7D95}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="76">
   <si>
     <t>Chronologie des chants d'anoures 2023</t>
   </si>
@@ -216,13 +216,61 @@
   </si>
   <si>
     <t>141m</t>
+  </si>
+  <si>
+    <t>Mont-Albert</t>
+  </si>
+  <si>
+    <t>Gaspésie</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Jean-Philippe Baillargeon</t>
+  </si>
+  <si>
+    <t>L'Assomption</t>
+  </si>
+  <si>
+    <t>Caroline Chouillard</t>
+  </si>
+  <si>
+    <t>Boucherville</t>
+  </si>
+  <si>
+    <t>Montérégie</t>
+  </si>
+  <si>
+    <t>Sofia Quijada</t>
+  </si>
+  <si>
+    <t>Saint-Denis-de-Brompton</t>
+  </si>
+  <si>
+    <t>Anne-Sophie T. Carrier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanaudière </t>
+  </si>
+  <si>
+    <t>Stoneham-et-Tewkesbury</t>
+  </si>
+  <si>
+    <t>Pierre Aquin</t>
+  </si>
+  <si>
+    <t>Premier chant du crapeau d'Amérique</t>
+  </si>
+  <si>
+    <t>Mélody Rahaga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +291,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +347,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -332,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,22 +421,51 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -718,31 +807,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD6CD39-F739-43EC-8F19-3C87262D3302}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -751,7 +840,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -785,7 +874,7 @@
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -819,7 +908,7 @@
       <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -853,7 +942,7 @@
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -887,7 +976,7 @@
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -919,7 +1008,7 @@
       <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -951,7 +1040,7 @@
       <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -983,7 +1072,7 @@
       <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1013,7 +1102,7 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1045,7 +1134,7 @@
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1075,7 +1164,7 @@
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1107,7 +1196,7 @@
       <c r="B14" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1139,7 +1228,7 @@
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1165,13 +1254,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>45410</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1180,17 +1269,17 @@
       <c r="E16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1290,7 @@
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="25" t="s">
         <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1210,7 +1299,7 @@
       <c r="E17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -1231,7 +1320,7 @@
       <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1263,14 +1352,14 @@
       <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1291,14 +1380,14 @@
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -1311,6 +1400,341 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>45418</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="22">
+        <v>132</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>45418</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="22">
+        <v>132</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>45418</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="22">
+        <v>55</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>45418</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="22">
+        <v>55</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>45421</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="22">
+        <v>214</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>45421</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="22">
+        <v>214</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>45423</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="22">
+        <v>177</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>45423</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="22">
+        <v>177</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>45426</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="22">
+        <v>99</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>45429</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>45432</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
